--- a/bugsTracking-bis/InternalBugTracking.xlsx
+++ b/bugsTracking-bis/InternalBugTracking.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="772" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="772" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
-    <sheet name="EXPORT LC" sheetId="10" r:id="rId2"/>
-    <sheet name="EXPORT COLLECTION" sheetId="9" r:id="rId3"/>
-    <sheet name="IMPORT Documentary Credit" sheetId="8" r:id="rId4"/>
-    <sheet name="IMPORT Documentary Collection" sheetId="7" r:id="rId5"/>
-    <sheet name="Fund Transfer" sheetId="6" r:id="rId6"/>
-    <sheet name="Collect Charges" sheetId="5" r:id="rId7"/>
-    <sheet name="Foreign Exchange" sheetId="1" r:id="rId8"/>
-    <sheet name="Free Format Message" sheetId="2" r:id="rId9"/>
+    <sheet name="Free Format Message" sheetId="2" r:id="rId2"/>
+    <sheet name="Foreign Exchange" sheetId="1" r:id="rId3"/>
+    <sheet name="EXPORT LC" sheetId="10" r:id="rId4"/>
+    <sheet name="EXPORT COLLECTION" sheetId="9" r:id="rId5"/>
+    <sheet name="IMPORT Documentary Credit" sheetId="8" r:id="rId6"/>
+    <sheet name="IMPORT Documentary Collection" sheetId="7" r:id="rId7"/>
+    <sheet name="Fund Transfer" sheetId="6" r:id="rId8"/>
+    <sheet name="Collect Charges" sheetId="5" r:id="rId9"/>
     <sheet name="Provision Transfer" sheetId="4" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="212">
   <si>
     <t>BugID</t>
   </si>
@@ -711,6 +711,21 @@
 +++++++++++++++++++
 . Số tiền VAT VND hiện đang có số thập phân
 . Số tiền bằng chữ bị sai</t>
+  </si>
+  <si>
+    <t>BIS-FX-5</t>
+  </si>
+  <si>
+    <t>Đồng nhất diễn giải tiếng việt có dấu</t>
+  </si>
+  <si>
+    <t>BIS-FFM-4</t>
+  </si>
+  <si>
+    <t>Khi reverse, sau đó commit thì phải trả lại màn hình xám không cho nhập liệu</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -1177,6 +1192,44 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table321" displayName="Table321" ref="A2:J6" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A2:J6"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="Function_x000a_(Chức năng)"/>
+    <tableColumn id="3" name="Expected result (kết quả mong muốn)"/>
+    <tableColumn id="4" name="Customer Status"/>
+    <tableColumn id="5" name="Status _x000a_(tình trạng Test)"/>
+    <tableColumn id="10" name="Owner"/>
+    <tableColumn id="6" name="Fixed?" dataDxfId="2"/>
+    <tableColumn id="8" name="Raised Date"/>
+    <tableColumn id="9" name="Fixed Date"/>
+    <tableColumn id="7" name="Screenshot Column (file hình chụp)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:J7" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A2:J7"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="Function_x000a_(Chức năng)"/>
+    <tableColumn id="3" name="Expected result (kết quả mong muốn)"/>
+    <tableColumn id="4" name="Customer Status"/>
+    <tableColumn id="5" name="Status _x000a_(tình trạng Test)"/>
+    <tableColumn id="10" name="Owner"/>
+    <tableColumn id="6" name="Fixed?" dataDxfId="4"/>
+    <tableColumn id="8" name="Raised Date"/>
+    <tableColumn id="9" name="Fixed Date"/>
+    <tableColumn id="7" name="Screenshot Column (file hình chụp)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table320" displayName="Table320" ref="A2:I26" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A2:I26"/>
   <tableColumns count="9">
@@ -1194,7 +1247,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table319" displayName="Table319" ref="A2:I10" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A2:I10"/>
   <tableColumns count="9">
@@ -1212,7 +1265,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table318" displayName="Table318" ref="A2:I7" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="A2:I7"/>
   <tableColumns count="9">
@@ -1230,7 +1283,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table317" displayName="Table317" ref="A2:I10" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="A2:I10"/>
   <tableColumns count="9">
@@ -1248,7 +1301,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table316" displayName="Table316" ref="A2:I5" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A2:I5"/>
   <tableColumns count="9">
@@ -1266,7 +1319,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table315" displayName="Table315" ref="A2:I5" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A2:I5"/>
   <tableColumns count="9">
@@ -1276,44 +1329,6 @@
     <tableColumn id="4" name="Actual result _x000a_(kết quả thực tế _x000a_khi test)"/>
     <tableColumn id="5" name="Status _x000a_(tình trạng Test)"/>
     <tableColumn id="6" name="Fixed?" dataDxfId="6"/>
-    <tableColumn id="8" name="Raised Date"/>
-    <tableColumn id="9" name="Fixed Date"/>
-    <tableColumn id="7" name="Screenshot Column (file hình chụp)"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:J6" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A2:J6"/>
-  <tableColumns count="10">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Function_x000a_(Chức năng)"/>
-    <tableColumn id="3" name="Expected result (kết quả mong muốn)"/>
-    <tableColumn id="4" name="Customer Status"/>
-    <tableColumn id="5" name="Status _x000a_(tình trạng Test)"/>
-    <tableColumn id="10" name="Owner"/>
-    <tableColumn id="6" name="Fixed?" dataDxfId="4"/>
-    <tableColumn id="8" name="Raised Date"/>
-    <tableColumn id="9" name="Fixed Date"/>
-    <tableColumn id="7" name="Screenshot Column (file hình chụp)"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table321" displayName="Table321" ref="A2:J5" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A2:J5"/>
-  <tableColumns count="10">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Function_x000a_(Chức năng)"/>
-    <tableColumn id="3" name="Expected result (kết quả mong muốn)"/>
-    <tableColumn id="4" name="Customer Status"/>
-    <tableColumn id="5" name="Status _x000a_(tình trạng Test)"/>
-    <tableColumn id="10" name="Owner"/>
-    <tableColumn id="6" name="Fixed?" dataDxfId="2"/>
     <tableColumn id="8" name="Raised Date"/>
     <tableColumn id="9" name="Fixed Date"/>
     <tableColumn id="7" name="Screenshot Column (file hình chụp)"/>
@@ -1656,11 +1671,11 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" t="str">
         <f xml:space="preserve"> A3&amp; "-"&amp;Table2[[#This Row],[FunctionID]] &amp; "-"&amp;Table2[[#This Row],[IncreaseNumber]]</f>
-        <v>BIS-FX-4</v>
+        <v>BIS-FX-5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1674,11 +1689,11 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" t="str">
         <f xml:space="preserve"> A4&amp; "-"&amp;Table2[[#This Row],[FunctionID]] &amp; "-"&amp;Table2[[#This Row],[IncreaseNumber]]</f>
-        <v>BIS-FFM-3</v>
+        <v>BIS-FFM-4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1916,6 +1931,350 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="9"/>
+    <col min="8" max="8" width="17.42578125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="38.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Data!$E$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="10"/>
+    <col min="8" max="8" width="17.42578125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="38.7109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Data!$E$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2077,7 +2436,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>165</v>
       </c>
@@ -2270,7 +2629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I10"/>
   <sheetViews>
@@ -2470,7 +2829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I7"/>
   <sheetViews>
@@ -2605,7 +2964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I10"/>
   <sheetViews>
@@ -2804,12 +3163,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2864,7 +3223,7 @@
         <v>76</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>30</v>
+        <v>211</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>77</v>
@@ -2887,7 +3246,7 @@
         <v>79</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>66</v>
+        <v>211</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>80</v>
@@ -2930,11 +3289,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D5:D9"/>
     </sheetView>
   </sheetViews>
@@ -3066,320 +3425,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J6"/>
-  <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="10"/>
-    <col min="8" max="8" width="17.42578125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="38.7109375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Data!$E$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:A6</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="41.28515625" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" customWidth="1"/>
-    <col min="5" max="5" width="38" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="9"/>
-    <col min="8" max="8" width="17.42578125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="38.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Data!$E$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:A5</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/bugsTracking-bis/InternalBugTracking.xlsx
+++ b/bugsTracking-bis/InternalBugTracking.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="772" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="772" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
-    <sheet name="Free Format Message" sheetId="2" r:id="rId2"/>
-    <sheet name="Foreign Exchange" sheetId="1" r:id="rId3"/>
-    <sheet name="EXPORT LC" sheetId="10" r:id="rId4"/>
-    <sheet name="EXPORT COLLECTION" sheetId="9" r:id="rId5"/>
-    <sheet name="IMPORT Documentary Credit" sheetId="8" r:id="rId6"/>
-    <sheet name="IMPORT Documentary Collection" sheetId="7" r:id="rId7"/>
-    <sheet name="Fund Transfer" sheetId="6" r:id="rId8"/>
+    <sheet name="Fund Transfer" sheetId="6" r:id="rId2"/>
+    <sheet name="Free Format Message" sheetId="2" r:id="rId3"/>
+    <sheet name="Foreign Exchange" sheetId="1" r:id="rId4"/>
+    <sheet name="EXPORT LC" sheetId="10" r:id="rId5"/>
+    <sheet name="EXPORT COLLECTION" sheetId="9" r:id="rId6"/>
+    <sheet name="IMPORT Documentary Credit" sheetId="8" r:id="rId7"/>
+    <sheet name="IMPORT Documentary Collection" sheetId="7" r:id="rId8"/>
     <sheet name="Collect Charges" sheetId="5" r:id="rId9"/>
     <sheet name="Provision Transfer" sheetId="4" r:id="rId10"/>
   </sheets>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="214">
   <si>
     <t>BugID</t>
   </si>
@@ -726,6 +726,12 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>BIS-FT-3</t>
+  </si>
+  <si>
+    <t>Chính tả, nôi dung đồng nhất với các phiếu</t>
   </si>
 </sst>
 </file>
@@ -956,6 +962,9 @@
       <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -980,7 +989,34 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1007,10 +1043,34 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1037,34 +1097,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1091,34 +1124,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1192,16 +1198,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table321" displayName="Table321" ref="A2:J6" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A2:J6"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table316" displayName="Table316" ref="A2:I5" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A2:I5"/>
+  <tableColumns count="9">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Function_x000a_(Chức năng)"/>
     <tableColumn id="3" name="Expected result (kết quả mong muốn)"/>
-    <tableColumn id="4" name="Customer Status"/>
+    <tableColumn id="4" name="Actual result _x000a_(kết quả thực tế _x000a_khi test)"/>
     <tableColumn id="5" name="Status _x000a_(tình trạng Test)"/>
-    <tableColumn id="10" name="Owner"/>
-    <tableColumn id="6" name="Fixed?" dataDxfId="2"/>
+    <tableColumn id="6" name="Fixed?" dataDxfId="4"/>
     <tableColumn id="8" name="Raised Date"/>
     <tableColumn id="9" name="Fixed Date"/>
     <tableColumn id="7" name="Screenshot Column (file hình chụp)"/>
@@ -1211,8 +1216,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:J7" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A2:J7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table321" displayName="Table321" ref="A2:J6" totalsRowShown="0" headerRowDxfId="36">
+  <autoFilter ref="A2:J6"/>
   <tableColumns count="10">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Function_x000a_(Chức năng)"/>
@@ -1220,7 +1225,7 @@
     <tableColumn id="4" name="Customer Status"/>
     <tableColumn id="5" name="Status _x000a_(tình trạng Test)"/>
     <tableColumn id="10" name="Owner"/>
-    <tableColumn id="6" name="Fixed?" dataDxfId="4"/>
+    <tableColumn id="6" name="Fixed?" dataDxfId="35"/>
     <tableColumn id="8" name="Raised Date"/>
     <tableColumn id="9" name="Fixed Date"/>
     <tableColumn id="7" name="Screenshot Column (file hình chụp)"/>
@@ -1230,51 +1235,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table320" displayName="Table320" ref="A2:I26" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
-  <autoFilter ref="A2:I26"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="ID" dataDxfId="34"/>
-    <tableColumn id="2" name="Function_x000a_(Chức năng)" dataDxfId="33"/>
-    <tableColumn id="3" name="Expected result (kết quả mong muốn)" dataDxfId="32"/>
-    <tableColumn id="4" name="Actual result _x000a_(kết quả thực tế _x000a_khi test)" dataDxfId="31"/>
-    <tableColumn id="5" name="Status _x000a_(tình trạng Test)" dataDxfId="30"/>
-    <tableColumn id="6" name="Fixed?" dataDxfId="29"/>
-    <tableColumn id="8" name="Raised Date" dataDxfId="28"/>
-    <tableColumn id="9" name="Fixed Date" dataDxfId="27"/>
-    <tableColumn id="7" name="Screenshot Column (file hình chụp)" dataDxfId="26"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table319" displayName="Table319" ref="A2:I10" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
-  <autoFilter ref="A2:I10"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="ID" dataDxfId="23"/>
-    <tableColumn id="2" name="Function_x000a_(Chức năng)" dataDxfId="22"/>
-    <tableColumn id="3" name="Expected result (kết quả mong muốn)" dataDxfId="21"/>
-    <tableColumn id="4" name="Actual result _x000a_(kết quả thực tế _x000a_khi test)" dataDxfId="20"/>
-    <tableColumn id="5" name="Status _x000a_(tình trạng Test)" dataDxfId="19"/>
-    <tableColumn id="6" name="Fixed?" dataDxfId="18"/>
-    <tableColumn id="8" name="Raised Date" dataDxfId="17"/>
-    <tableColumn id="9" name="Fixed Date" dataDxfId="16"/>
-    <tableColumn id="7" name="Screenshot Column (file hình chụp)" dataDxfId="15"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table318" displayName="Table318" ref="A2:I7" totalsRowShown="0" headerRowDxfId="14">
-  <autoFilter ref="A2:I7"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:J7" totalsRowShown="0" headerRowDxfId="34">
+  <autoFilter ref="A2:J7"/>
+  <tableColumns count="10">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Function_x000a_(Chức năng)"/>
-    <tableColumn id="3" name="Expected result (kết quả mong muốn)" dataDxfId="13"/>
-    <tableColumn id="4" name="Actual result _x000a_(kết quả thực tế _x000a_khi test)"/>
+    <tableColumn id="3" name="Expected result (kết quả mong muốn)"/>
+    <tableColumn id="4" name="Customer Status"/>
     <tableColumn id="5" name="Status _x000a_(tình trạng Test)"/>
-    <tableColumn id="6" name="Fixed?" dataDxfId="12"/>
+    <tableColumn id="10" name="Owner"/>
+    <tableColumn id="6" name="Fixed?" dataDxfId="33"/>
     <tableColumn id="8" name="Raised Date"/>
     <tableColumn id="9" name="Fixed Date"/>
     <tableColumn id="7" name="Screenshot Column (file hình chụp)"/>
@@ -1283,31 +1253,49 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table317" displayName="Table317" ref="A2:I10" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="A2:I10"/>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table320" displayName="Table320" ref="A2:I26" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+  <autoFilter ref="A2:I26"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Function_x000a_(Chức năng)"/>
-    <tableColumn id="3" name="Expected result (kết quả mong muốn)"/>
-    <tableColumn id="4" name="Actual result _x000a_(kết quả thực tế _x000a_khi test)"/>
-    <tableColumn id="5" name="Status _x000a_(tình trạng Test)"/>
-    <tableColumn id="6" name="Fixed?" dataDxfId="10"/>
-    <tableColumn id="8" name="Raised Date"/>
-    <tableColumn id="9" name="Fixed Date"/>
-    <tableColumn id="7" name="Screenshot Column (file hình chụp)"/>
+    <tableColumn id="1" name="ID" dataDxfId="30"/>
+    <tableColumn id="2" name="Function_x000a_(Chức năng)" dataDxfId="29"/>
+    <tableColumn id="3" name="Expected result (kết quả mong muốn)" dataDxfId="28"/>
+    <tableColumn id="4" name="Actual result _x000a_(kết quả thực tế _x000a_khi test)" dataDxfId="27"/>
+    <tableColumn id="5" name="Status _x000a_(tình trạng Test)" dataDxfId="26"/>
+    <tableColumn id="6" name="Fixed?" dataDxfId="25"/>
+    <tableColumn id="8" name="Raised Date" dataDxfId="24"/>
+    <tableColumn id="9" name="Fixed Date" dataDxfId="23"/>
+    <tableColumn id="7" name="Screenshot Column (file hình chụp)" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table316" displayName="Table316" ref="A2:I5" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="A2:I5"/>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table319" displayName="Table319" ref="A2:I10" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A2:I10"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="ID" dataDxfId="19"/>
+    <tableColumn id="2" name="Function_x000a_(Chức năng)" dataDxfId="18"/>
+    <tableColumn id="3" name="Expected result (kết quả mong muốn)" dataDxfId="17"/>
+    <tableColumn id="4" name="Actual result _x000a_(kết quả thực tế _x000a_khi test)" dataDxfId="16"/>
+    <tableColumn id="5" name="Status _x000a_(tình trạng Test)" dataDxfId="15"/>
+    <tableColumn id="6" name="Fixed?" dataDxfId="14"/>
+    <tableColumn id="8" name="Raised Date" dataDxfId="13"/>
+    <tableColumn id="9" name="Fixed Date" dataDxfId="12"/>
+    <tableColumn id="7" name="Screenshot Column (file hình chụp)" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table318" displayName="Table318" ref="A2:I7" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="A2:I7"/>
   <tableColumns count="9">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Function_x000a_(Chức năng)"/>
-    <tableColumn id="3" name="Expected result (kết quả mong muốn)"/>
+    <tableColumn id="3" name="Expected result (kết quả mong muốn)" dataDxfId="9"/>
     <tableColumn id="4" name="Actual result _x000a_(kết quả thực tế _x000a_khi test)"/>
     <tableColumn id="5" name="Status _x000a_(tình trạng Test)"/>
     <tableColumn id="6" name="Fixed?" dataDxfId="8"/>
@@ -1319,8 +1307,26 @@
 </table>
 </file>
 
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table317" displayName="Table317" ref="A2:I10" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A2:I10"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="Function_x000a_(Chức năng)"/>
+    <tableColumn id="3" name="Expected result (kết quả mong muốn)"/>
+    <tableColumn id="4" name="Actual result _x000a_(kết quả thực tế _x000a_khi test)"/>
+    <tableColumn id="5" name="Status _x000a_(tình trạng Test)"/>
+    <tableColumn id="6" name="Fixed?" dataDxfId="6"/>
+    <tableColumn id="8" name="Raised Date"/>
+    <tableColumn id="9" name="Fixed Date"/>
+    <tableColumn id="7" name="Screenshot Column (file hình chụp)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table315" displayName="Table315" ref="A2:I5" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table315" displayName="Table315" ref="A2:I5" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A2:I5"/>
   <tableColumns count="9">
     <tableColumn id="1" name="ID"/>
@@ -1328,7 +1334,7 @@
     <tableColumn id="3" name="Expected result (kết quả mong muốn)"/>
     <tableColumn id="4" name="Actual result _x000a_(kết quả thực tế _x000a_khi test)"/>
     <tableColumn id="5" name="Status _x000a_(tình trạng Test)"/>
-    <tableColumn id="6" name="Fixed?" dataDxfId="6"/>
+    <tableColumn id="6" name="Fixed?" dataDxfId="2"/>
     <tableColumn id="8" name="Raised Date"/>
     <tableColumn id="9" name="Fixed Date"/>
     <tableColumn id="7" name="Screenshot Column (file hình chụp)"/>
@@ -1627,7 +1633,7 @@
   <dimension ref="A2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1746,11 +1752,11 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="str">
         <f xml:space="preserve"> A7&amp; "-"&amp;Table2[[#This Row],[FunctionID]] &amp; "-"&amp;Table2[[#This Row],[IncreaseNumber]]</f>
-        <v>BIS-FT-2</v>
+        <v>BIS-FT-3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1931,6 +1937,144 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="9"/>
+    <col min="7" max="7" width="17.42578125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="38.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Data!$E$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2090,7 +2234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J7"/>
   <sheetViews>
@@ -2273,7 +2417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I26"/>
   <sheetViews>
@@ -2629,7 +2773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I10"/>
   <sheetViews>
@@ -2829,7 +2973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I7"/>
   <sheetViews>
@@ -2964,7 +3108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I10"/>
   <sheetViews>
@@ -3156,132 +3300,6 @@
             <xm:f>Data!$E$8</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A10</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" customWidth="1"/>
-    <col min="5" max="5" width="35.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="9"/>
-    <col min="7" max="7" width="17.42578125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="38.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Data!$E$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:A4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/bugsTracking-bis/InternalBugTracking.xlsx
+++ b/bugsTracking-bis/InternalBugTracking.xlsx
@@ -8,12 +8,12 @@
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
-    <sheet name="Fund Transfer" sheetId="6" r:id="rId2"/>
-    <sheet name="Free Format Message" sheetId="2" r:id="rId3"/>
-    <sheet name="Foreign Exchange" sheetId="1" r:id="rId4"/>
-    <sheet name="EXPORT LC" sheetId="10" r:id="rId5"/>
-    <sheet name="EXPORT COLLECTION" sheetId="9" r:id="rId6"/>
-    <sheet name="IMPORT Documentary Credit" sheetId="8" r:id="rId7"/>
+    <sheet name="IMPORT Documentary Credit" sheetId="8" r:id="rId2"/>
+    <sheet name="Fund Transfer" sheetId="6" r:id="rId3"/>
+    <sheet name="Free Format Message" sheetId="2" r:id="rId4"/>
+    <sheet name="Foreign Exchange" sheetId="1" r:id="rId5"/>
+    <sheet name="EXPORT LC" sheetId="10" r:id="rId6"/>
+    <sheet name="EXPORT COLLECTION" sheetId="9" r:id="rId7"/>
     <sheet name="IMPORT Documentary Collection" sheetId="7" r:id="rId8"/>
     <sheet name="Collect Charges" sheetId="5" r:id="rId9"/>
     <sheet name="Provision Transfer" sheetId="4" r:id="rId10"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="284">
   <si>
     <t>BugID</t>
   </si>
@@ -732,6 +732,224 @@
   </si>
   <si>
     <t>Chính tả, nôi dung đồng nhất với các phiếu</t>
+  </si>
+  <si>
+    <t>Các loại điện (MT740/747/202)</t>
+  </si>
+  <si>
+    <t>Tiêu đề của điện là "Swift Input: …"</t>
+  </si>
+  <si>
+    <t>Số tiền bằng chữ thể hiện phần thập phân</t>
+  </si>
+  <si>
+    <t>Tab MT740</t>
+  </si>
+  <si>
+    <t>Điện MT740</t>
+  </si>
+  <si>
+    <t>Các nội dung nhập trên tab MT740 thì phải được hiển thị trên điện MT740</t>
+  </si>
+  <si>
+    <t>Điện MT700</t>
+  </si>
+  <si>
+    <t>Khi reverse, sửa Dung sai thì điện MT700 phải cập  nhật dung sai vừa sửa</t>
+  </si>
+  <si>
+    <t>Điện MT707</t>
+  </si>
+  <si>
+    <t>Thể hiện nội dung tu chỉnh ở f.44C hoặc 44D trên điện MT707</t>
+  </si>
+  <si>
+    <t>Phiếu xuất ngoại bảng</t>
+  </si>
+  <si>
+    <t>Số tiền bằng số: làm tròn 2 chữ số thập phân</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giá trị xuất ngoại bảng khi tu chỉnh giảm tiền cùng lúc với tu chỉnh dung sai phải tính đúng = giá trị ngoại bảng khi phát hành LC - giá trị LC sau tu chỉnh x dung sai </t>
+  </si>
+  <si>
+    <t>Điện MT747</t>
+  </si>
+  <si>
+    <t>Register Discrepancies/Tab Main</t>
+  </si>
+  <si>
+    <t>Trường 69.5.1: mặc định nội dung "WE ARE HOLDING DOCS AS PER ARTICLE 16C(III) B OF UCP 600" và cho phép chỉnh sửa</t>
+  </si>
+  <si>
+    <t>Register Discrepancies/Tab MT734</t>
+  </si>
+  <si>
+    <t>Lấy dữ liệu tự động từ 69.5.1 tại tab main</t>
+  </si>
+  <si>
+    <t>MT734</t>
+  </si>
+  <si>
+    <t>Trường 32A không được hiển thị giờ</t>
+  </si>
+  <si>
+    <t>Giải thích trường 69.3.1 là trường gì?</t>
+  </si>
+  <si>
+    <t>Tu chỉnh trị giá bộ chứng từ</t>
+  </si>
+  <si>
+    <t>Tu chỉnh tăng /giảm trị giá BCT thì không tạo phiếu nhập/xuất ngoại bảng</t>
+  </si>
+  <si>
+    <t>Khi reverse, giao dịch cho phép chỉnh sửa</t>
+  </si>
+  <si>
+    <t>Thêm trường: Reject date, Contigent expiry date, Reject remark (tương tự như Cancel của Nhờ thu nhập, Cancel của LC nhập)</t>
+  </si>
+  <si>
+    <t>Tab Main/field Accept Date</t>
+  </si>
+  <si>
+    <t>Đổi label thành "Maturity Date" thay vì "Accepted Date"</t>
+  </si>
+  <si>
+    <t>Tab Main</t>
+  </si>
+  <si>
+    <t>Thêm số thứ tự cho các field</t>
+  </si>
+  <si>
+    <t>Tài khoản nợ là tài khoản ký quỹ khách hàng (là Field Amount DR from account trên tab main)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thể hiện số tiền chuyển khoản thực sự vào tài khoản nostro = trị giá bct - số tiền thu phí ở tab charge. </t>
+  </si>
+  <si>
+    <t>Fully Utilised</t>
+  </si>
+  <si>
+    <t>Hide trường này đi, không xây logic do phức tạp.
+(Nếu muốn xuất hết ngoại bảng thì sẽ sử dụng chức năng Cancel)</t>
+  </si>
+  <si>
+    <t>Check lại trường Generate Delivery?</t>
+  </si>
+  <si>
+    <t>Delete khỏi cây thư mục</t>
+  </si>
+  <si>
+    <t>Label Cancel</t>
+  </si>
+  <si>
+    <t>Sửa label name Cancel thành Cancel/Close</t>
+  </si>
+  <si>
+    <t>Khi Lc có tu chỉnh thay đổi trị giá, thì giá trị ngoại bảng trên phiếu xuất ngoại bảng = ngoại bảng còn lại sau khi tu chỉnh</t>
+  </si>
+  <si>
+    <t>Màn hình cancel</t>
+  </si>
+  <si>
+    <t>Trị giá ngoại bảng khi cancel = ngoại bảng của LC trừ đi trị giá các bộ chứng từ đã thanh toán</t>
+  </si>
+  <si>
+    <t>Logic ngoại bảng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mô tả: 
+. Phát hành LC trị giá: usd100,000 -&gt; nhập ngoại bảng usd100,000
+. Nhập BCT trị giá usd40,00 và thanh toán luôn bct. -&gt; xuất ngoại bảng usd40,000. (Ngoại bảng còn lại của LC sẽ là usd60,000)
+. Tu chỉnh tăng hoặc giảm tiền. Vd: tăng tiền usd20,000 -&gt; Nhập ngoại bảng usd20,000 (ngoại bảng sau tu chỉnh của LC là usd80,000)
+. Sau đó cancel LC --&gt; xuất ngoại bảng là usd80,000
+===&gt; Giá trị ngoại bảng của LC tại thời điểm = Nhập ngoại bảng phát hành -/+ ngoại bảng tu chỉnh giảm/tăng tiền (nhiều lần tu chỉnh) - xuất ngoại bảng thanh toán (nhiều lần thanh toán)
+==&gt; Xuất ngoại bảng tại màn hình cancel sẽ là Giá trị ngoại bảng của LC tại thời điểm
+</t>
+  </si>
+  <si>
+    <t>BIS-IDCR-5</t>
+  </si>
+  <si>
+    <t>BIS-IDCR-6</t>
+  </si>
+  <si>
+    <t>BIS-IDCR-7</t>
+  </si>
+  <si>
+    <t>BIS-IDCR-8</t>
+  </si>
+  <si>
+    <t>BIS-IDCR-9</t>
+  </si>
+  <si>
+    <t>BIS-IDCR-10</t>
+  </si>
+  <si>
+    <t>BIS-IDCR-11</t>
+  </si>
+  <si>
+    <t>BIS-IDCR-12</t>
+  </si>
+  <si>
+    <t>BIS-IDCR-13</t>
+  </si>
+  <si>
+    <t>BIS-IDCR-14</t>
+  </si>
+  <si>
+    <t>BIS-IDCR-15</t>
+  </si>
+  <si>
+    <t>BIS-IDCR-16</t>
+  </si>
+  <si>
+    <t>BIS-IDCR-17</t>
+  </si>
+  <si>
+    <t>BIS-IDCR-18</t>
+  </si>
+  <si>
+    <t>BIS-IDCR-19</t>
+  </si>
+  <si>
+    <t>BIS-IDCR-20</t>
+  </si>
+  <si>
+    <t>BIS-IDCR-21</t>
+  </si>
+  <si>
+    <t>BIS-IDCR-22</t>
+  </si>
+  <si>
+    <t>BIS-IDCR-23</t>
+  </si>
+  <si>
+    <t>BIS-IDCR-24</t>
+  </si>
+  <si>
+    <t>BIS-IDCR-25</t>
+  </si>
+  <si>
+    <t>BIS-IDCR-26</t>
+  </si>
+  <si>
+    <t>BIS-IDCR-27</t>
+  </si>
+  <si>
+    <t>BIS-IDCR-28</t>
+  </si>
+  <si>
+    <t>BIS-IDCR-29</t>
+  </si>
+  <si>
+    <t>BIS-IDCR-30</t>
+  </si>
+  <si>
+    <t>BIS-IDCR-31</t>
+  </si>
+  <si>
+    <t>BIS-IDCR-32</t>
   </si>
 </sst>
 </file>
@@ -854,31 +1072,7 @@
       <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -960,9 +1154,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1151,6 +1342,33 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
@@ -1180,12 +1398,30 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table314" displayName="Table314" ref="A2:I5" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table314" displayName="Table314" ref="A2:I5" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A2:I5"/>
   <tableColumns count="9">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Function_x000a_(Chức năng)"/>
     <tableColumn id="3" name="Expected result (kết quả mong muốn)"/>
+    <tableColumn id="4" name="Actual result _x000a_(kết quả thực tế _x000a_khi test)"/>
+    <tableColumn id="5" name="Status _x000a_(tình trạng Test)"/>
+    <tableColumn id="6" name="Fixed?" dataDxfId="3"/>
+    <tableColumn id="8" name="Raised Date"/>
+    <tableColumn id="9" name="Fixed Date"/>
+    <tableColumn id="7" name="Screenshot Column (file hình chụp)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table318" displayName="Table318" ref="A2:I35" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A2:I35"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="Function_x000a_(Chức năng)"/>
+    <tableColumn id="3" name="Expected result (kết quả mong muốn)" dataDxfId="1"/>
     <tableColumn id="4" name="Actual result _x000a_(kết quả thực tế _x000a_khi test)"/>
     <tableColumn id="5" name="Status _x000a_(tình trạng Test)"/>
     <tableColumn id="6" name="Fixed?" dataDxfId="0"/>
@@ -1197,8 +1433,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table316" displayName="Table316" ref="A2:I5" totalsRowShown="0" headerRowDxfId="5">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table316" displayName="Table316" ref="A2:I5" totalsRowShown="0" headerRowDxfId="36">
   <autoFilter ref="A2:I5"/>
   <tableColumns count="9">
     <tableColumn id="1" name="ID"/>
@@ -1206,25 +1442,6 @@
     <tableColumn id="3" name="Expected result (kết quả mong muốn)"/>
     <tableColumn id="4" name="Actual result _x000a_(kết quả thực tế _x000a_khi test)"/>
     <tableColumn id="5" name="Status _x000a_(tình trạng Test)"/>
-    <tableColumn id="6" name="Fixed?" dataDxfId="4"/>
-    <tableColumn id="8" name="Raised Date"/>
-    <tableColumn id="9" name="Fixed Date"/>
-    <tableColumn id="7" name="Screenshot Column (file hình chụp)"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table321" displayName="Table321" ref="A2:J6" totalsRowShown="0" headerRowDxfId="36">
-  <autoFilter ref="A2:J6"/>
-  <tableColumns count="10">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Function_x000a_(Chức năng)"/>
-    <tableColumn id="3" name="Expected result (kết quả mong muốn)"/>
-    <tableColumn id="4" name="Customer Status"/>
-    <tableColumn id="5" name="Status _x000a_(tình trạng Test)"/>
-    <tableColumn id="10" name="Owner"/>
     <tableColumn id="6" name="Fixed?" dataDxfId="35"/>
     <tableColumn id="8" name="Raised Date"/>
     <tableColumn id="9" name="Fixed Date"/>
@@ -1235,8 +1452,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:J7" totalsRowShown="0" headerRowDxfId="34">
-  <autoFilter ref="A2:J7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table321" displayName="Table321" ref="A2:J6" totalsRowShown="0" headerRowDxfId="34">
+  <autoFilter ref="A2:J6"/>
   <tableColumns count="10">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Function_x000a_(Chức năng)"/>
@@ -1254,51 +1471,16 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table320" displayName="Table320" ref="A2:I26" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
-  <autoFilter ref="A2:I26"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="ID" dataDxfId="30"/>
-    <tableColumn id="2" name="Function_x000a_(Chức năng)" dataDxfId="29"/>
-    <tableColumn id="3" name="Expected result (kết quả mong muốn)" dataDxfId="28"/>
-    <tableColumn id="4" name="Actual result _x000a_(kết quả thực tế _x000a_khi test)" dataDxfId="27"/>
-    <tableColumn id="5" name="Status _x000a_(tình trạng Test)" dataDxfId="26"/>
-    <tableColumn id="6" name="Fixed?" dataDxfId="25"/>
-    <tableColumn id="8" name="Raised Date" dataDxfId="24"/>
-    <tableColumn id="9" name="Fixed Date" dataDxfId="23"/>
-    <tableColumn id="7" name="Screenshot Column (file hình chụp)" dataDxfId="22"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table319" displayName="Table319" ref="A2:I10" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A2:I10"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="ID" dataDxfId="19"/>
-    <tableColumn id="2" name="Function_x000a_(Chức năng)" dataDxfId="18"/>
-    <tableColumn id="3" name="Expected result (kết quả mong muốn)" dataDxfId="17"/>
-    <tableColumn id="4" name="Actual result _x000a_(kết quả thực tế _x000a_khi test)" dataDxfId="16"/>
-    <tableColumn id="5" name="Status _x000a_(tình trạng Test)" dataDxfId="15"/>
-    <tableColumn id="6" name="Fixed?" dataDxfId="14"/>
-    <tableColumn id="8" name="Raised Date" dataDxfId="13"/>
-    <tableColumn id="9" name="Fixed Date" dataDxfId="12"/>
-    <tableColumn id="7" name="Screenshot Column (file hình chụp)" dataDxfId="11"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table318" displayName="Table318" ref="A2:I7" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="A2:I7"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:J7" totalsRowShown="0" headerRowDxfId="32">
+  <autoFilter ref="A2:J7"/>
+  <tableColumns count="10">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Function_x000a_(Chức năng)"/>
-    <tableColumn id="3" name="Expected result (kết quả mong muốn)" dataDxfId="9"/>
-    <tableColumn id="4" name="Actual result _x000a_(kết quả thực tế _x000a_khi test)"/>
+    <tableColumn id="3" name="Expected result (kết quả mong muốn)"/>
+    <tableColumn id="4" name="Customer Status"/>
     <tableColumn id="5" name="Status _x000a_(tình trạng Test)"/>
-    <tableColumn id="6" name="Fixed?" dataDxfId="8"/>
+    <tableColumn id="10" name="Owner"/>
+    <tableColumn id="6" name="Fixed?" dataDxfId="31"/>
     <tableColumn id="8" name="Raised Date"/>
     <tableColumn id="9" name="Fixed Date"/>
     <tableColumn id="7" name="Screenshot Column (file hình chụp)"/>
@@ -1307,8 +1489,44 @@
 </table>
 </file>
 
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table320" displayName="Table320" ref="A2:I26" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="A2:I26"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="ID" dataDxfId="28"/>
+    <tableColumn id="2" name="Function_x000a_(Chức năng)" dataDxfId="27"/>
+    <tableColumn id="3" name="Expected result (kết quả mong muốn)" dataDxfId="26"/>
+    <tableColumn id="4" name="Actual result _x000a_(kết quả thực tế _x000a_khi test)" dataDxfId="25"/>
+    <tableColumn id="5" name="Status _x000a_(tình trạng Test)" dataDxfId="24"/>
+    <tableColumn id="6" name="Fixed?" dataDxfId="23"/>
+    <tableColumn id="8" name="Raised Date" dataDxfId="22"/>
+    <tableColumn id="9" name="Fixed Date" dataDxfId="21"/>
+    <tableColumn id="7" name="Screenshot Column (file hình chụp)" dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table319" displayName="Table319" ref="A2:I10" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A2:I10"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="ID" dataDxfId="17"/>
+    <tableColumn id="2" name="Function_x000a_(Chức năng)" dataDxfId="16"/>
+    <tableColumn id="3" name="Expected result (kết quả mong muốn)" dataDxfId="15"/>
+    <tableColumn id="4" name="Actual result _x000a_(kết quả thực tế _x000a_khi test)" dataDxfId="14"/>
+    <tableColumn id="5" name="Status _x000a_(tình trạng Test)" dataDxfId="13"/>
+    <tableColumn id="6" name="Fixed?" dataDxfId="12"/>
+    <tableColumn id="8" name="Raised Date" dataDxfId="11"/>
+    <tableColumn id="9" name="Fixed Date" dataDxfId="10"/>
+    <tableColumn id="7" name="Screenshot Column (file hình chụp)" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table317" displayName="Table317" ref="A2:I10" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table317" displayName="Table317" ref="A2:I10" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A2:I10"/>
   <tableColumns count="9">
     <tableColumn id="1" name="ID"/>
@@ -1316,7 +1534,7 @@
     <tableColumn id="3" name="Expected result (kết quả mong muốn)"/>
     <tableColumn id="4" name="Actual result _x000a_(kết quả thực tế _x000a_khi test)"/>
     <tableColumn id="5" name="Status _x000a_(tình trạng Test)"/>
-    <tableColumn id="6" name="Fixed?" dataDxfId="6"/>
+    <tableColumn id="6" name="Fixed?" dataDxfId="7"/>
     <tableColumn id="8" name="Raised Date"/>
     <tableColumn id="9" name="Fixed Date"/>
     <tableColumn id="7" name="Screenshot Column (file hình chụp)"/>
@@ -1326,7 +1544,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table315" displayName="Table315" ref="A2:I5" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table315" displayName="Table315" ref="A2:I5" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A2:I5"/>
   <tableColumns count="9">
     <tableColumn id="1" name="ID"/>
@@ -1334,7 +1552,7 @@
     <tableColumn id="3" name="Expected result (kết quả mong muốn)"/>
     <tableColumn id="4" name="Actual result _x000a_(kết quả thực tế _x000a_khi test)"/>
     <tableColumn id="5" name="Status _x000a_(tình trạng Test)"/>
-    <tableColumn id="6" name="Fixed?" dataDxfId="2"/>
+    <tableColumn id="6" name="Fixed?" dataDxfId="5"/>
     <tableColumn id="8" name="Raised Date"/>
     <tableColumn id="9" name="Fixed Date"/>
     <tableColumn id="7" name="Screenshot Column (file hình chụp)"/>
@@ -1633,7 +1851,7 @@
   <dimension ref="A2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1788,11 +2006,11 @@
         <v>9</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E9" t="str">
         <f xml:space="preserve"> A9&amp; "-"&amp;Table2[[#This Row],[FunctionID]] &amp; "-"&amp;Table2[[#This Row],[IncreaseNumber]]</f>
-        <v>BIS-IDCR-4</v>
+        <v>BIS-IDCR-32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1937,9 +2155,446 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="9"/>
+    <col min="7" max="7" width="17.42578125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="38.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="186" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B17" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B18" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B20" t="s">
+        <v>232</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B22" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B24" t="s">
+        <v>238</v>
+      </c>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B30" t="s">
+        <v>245</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B31" t="s">
+        <v>247</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B33" t="s">
+        <v>170</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B34" t="s">
+        <v>252</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="270" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B35" t="s">
+        <v>254</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Data!$E$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>A4:A35</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -2073,7 +2728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J6"/>
   <sheetViews>
@@ -2234,7 +2889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J7"/>
   <sheetViews>
@@ -2417,7 +3072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I26"/>
   <sheetViews>
@@ -2773,7 +3428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I10"/>
   <sheetViews>
@@ -2966,141 +3621,6 @@
             <xm:f>Data!$E$10</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A10</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I7"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" customWidth="1"/>
-    <col min="5" max="5" width="35.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="9"/>
-    <col min="7" max="7" width="17.42578125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="38.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" ht="186" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Data!$E$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>A4:A7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
